--- a/to_do_eg/test.xlsx
+++ b/to_do_eg/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>abc@example.com</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>xyz@example.com</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -396,9 +402,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/to_do_eg/test.xlsx
+++ b/to_do_eg/test.xlsx
@@ -24,16 +24,16 @@
     <t>email</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>abc@example.com</t>
   </si>
   <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>xyz@example.com</t>
+    <t>xyzlm</t>
+  </si>
+  <si>
+    <t>abclmkjkj</t>
+  </si>
+  <si>
+    <t>xyz@example.comhvggh</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -396,19 +396,22 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/to_do_eg/test.xlsx
+++ b/to_do_eg/test.xlsx
@@ -27,13 +27,13 @@
     <t>abc@example.com</t>
   </si>
   <si>
-    <t>xyzlm</t>
-  </si>
-  <si>
-    <t>abclmkjkj</t>
-  </si>
-  <si>
-    <t>xyz@example.comhvggh</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>xyz@example.com</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>

--- a/to_do_eg/test.xlsx
+++ b/to_do_eg/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>xyz@example.com</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aaa@example.com</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -411,12 +417,18 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/to_do_eg/test.xlsx
+++ b/to_do_eg/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>aaa@example.com</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>bbb@example.com</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,11 +430,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/to_do_eg/test.xlsx
+++ b/to_do_eg/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>bbb@example.com</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ccc@example.com</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -438,12 +444,21 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/to_do_eg/test.xlsx
+++ b/to_do_eg/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>bbb@example.com</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>ddd@example.com</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -438,12 +444,21 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/to_do_eg/test.xlsx
+++ b/to_do_eg/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>ddd@example.com</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ccc@example.com</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -446,9 +452,17 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -458,7 +472,8 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/to_do_eg/test.xlsx
+++ b/to_do_eg/test.xlsx
@@ -405,10 +405,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
